--- a/data/trans_orig/P1407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{797CE604-CC7C-4510-B557-D4C577E3670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DDC1BF-69FC-47C8-B9B1-FD06A52DE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEB81D12-CDAF-4CBA-9140-FB1B8D47D2FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A34B516-651B-4C61-841E-4E5F1C752F28}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="219">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -124,430 +124,436 @@
     <t>0,62%</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>98,92%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -559,31 +565,31 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>3,88%</t>
+    <t>3,81%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>96,12%</t>
+    <t>96,19%</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -592,19 +598,22 @@
     <t>95,6%</t>
   </si>
   <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>96,43%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -613,28 +622,25 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>97,8%</t>
+    <t>97,82%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>99,14%</t>
   </si>
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
@@ -662,9 +668,6 @@
   </si>
   <si>
     <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1103,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5859BDE-64A0-45E8-9924-55AF27EF55EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71AED7B-25DF-481E-880F-64CAA66699B6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1502,10 +1505,10 @@
         <v>27</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1517,10 +1520,10 @@
         <v>24</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>20</v>
@@ -1550,13 +1553,13 @@
         <v>606488</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>1234</v>
@@ -1565,13 +1568,13 @@
         <v>1293575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,7 +1630,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1705,13 +1708,13 @@
         <v>7755</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1720,13 +1723,13 @@
         <v>7755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -1756,13 +1759,13 @@
         <v>701819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -1771,13 +1774,13 @@
         <v>1383682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1851,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1866,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1881,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1905,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -1911,13 +1914,13 @@
         <v>11254</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1926,13 +1929,13 @@
         <v>11254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>20</v>
@@ -1962,13 +1965,13 @@
         <v>603010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7">
         <v>1077</v>
@@ -1977,13 +1980,13 @@
         <v>1217626</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2042,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2057,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2072,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2087,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2117,13 +2120,13 @@
         <v>17583</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -2132,13 +2135,13 @@
         <v>17583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,7 +2159,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -2168,13 +2171,13 @@
         <v>430217</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>783</v>
@@ -2183,13 +2186,13 @@
         <v>859646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2248,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2263,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2278,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2293,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2311,13 @@
         <v>10293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2323,13 +2326,13 @@
         <v>31259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -2338,13 +2341,13 @@
         <v>41551</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2362,13 @@
         <v>549344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -2374,13 +2377,13 @@
         <v>710533</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1157</v>
@@ -2389,13 +2392,13 @@
         <v>1259878</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2484,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2499,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2517,13 @@
         <v>10293</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -2529,13 +2532,13 @@
         <v>71617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -2544,13 +2547,13 @@
         <v>81910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2568,13 @@
         <v>3416486</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="H30" s="7">
         <v>3229</v>
@@ -2580,13 +2583,13 @@
         <v>3482299</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M30" s="7">
         <v>6428</v>
@@ -2595,13 +2598,13 @@
         <v>6898784</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2660,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF991A5-1073-478D-8809-CFC1EB5F5C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138602D1-2F04-4E92-841B-F9607AC7A68B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2696,7 +2699,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2809,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2824,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2839,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2869,13 +2872,13 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2884,13 +2887,13 @@
         <v>996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2911,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2920,10 +2923,10 @@
         <v>394759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -2935,10 +2938,10 @@
         <v>814222</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -3030,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3045,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3078,13 @@
         <v>2726</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3090,13 +3093,13 @@
         <v>2726</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3117,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>20</v>
@@ -3126,13 +3129,13 @@
         <v>560818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>1143</v>
@@ -3141,13 +3144,13 @@
         <v>1151314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3206,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3221,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3272,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3281,13 +3284,13 @@
         <v>3488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3296,13 +3299,13 @@
         <v>3488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3323,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -3332,13 +3335,13 @@
         <v>657898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
@@ -3347,13 +3350,13 @@
         <v>1326995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3412,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3427,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3442,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3457,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3487,13 +3490,13 @@
         <v>5200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3502,13 +3505,13 @@
         <v>6182</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,10 +3526,10 @@
         <v>645066</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -3538,28 +3541,28 @@
         <v>643877</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>1178</v>
       </c>
       <c r="N18" s="7">
-        <v>1288943</v>
+        <v>1288944</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3604,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -3615,7 +3618,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3648,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3678,13 +3681,13 @@
         <v>1025</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3693,13 +3696,13 @@
         <v>12463</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3708,13 +3711,13 @@
         <v>13487</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,10 +3732,10 @@
         <v>476893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -3744,13 +3747,13 @@
         <v>484386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M22" s="7">
         <v>846</v>
@@ -3759,13 +3762,13 @@
         <v>961280</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3824,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3839,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3884,13 +3887,13 @@
         <v>14556</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3899,13 +3902,13 @@
         <v>34259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3914,13 +3917,13 @@
         <v>48815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3938,13 @@
         <v>576772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -3950,13 +3953,13 @@
         <v>743672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
@@ -3965,13 +3968,13 @@
         <v>1320444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4060,7 +4063,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4075,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4093,13 @@
         <v>16562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4105,13 +4108,13 @@
         <v>59131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -4120,13 +4123,13 @@
         <v>75693</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4144,13 @@
         <v>3377788</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30" s="7">
         <v>3287</v>
@@ -4156,13 +4159,13 @@
         <v>3485411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>6501</v>
@@ -4171,13 +4174,13 @@
         <v>6863199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,7 +4236,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B235F5C-0A9B-48FD-96DA-6E3FB53DA0F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3B51E2-D98F-4EB6-A477-98BE4E8A7F3A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4382,7 +4385,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4397,7 +4400,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4412,7 +4415,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4436,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4451,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4466,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4502,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4517,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4603,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4618,7 +4621,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4642,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4657,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4672,7 +4675,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4708,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4723,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4782,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4794,7 +4797,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -4809,7 +4812,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4824,7 +4827,7 @@
         <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
@@ -4848,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4863,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4878,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4914,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4929,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,7 +4988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5000,7 +5003,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>20</v>
@@ -5015,7 +5018,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -5024,13 +5027,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -5069,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5084,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5135,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5180,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -5191,7 +5194,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5206,7 +5209,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>20</v>
@@ -5221,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -5236,7 +5239,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5275,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5290,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5341,7 +5344,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,7 +5400,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5406,13 +5409,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5427,7 +5430,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5442,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5466,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5481,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5496,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,7 +5520,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5532,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5547,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5562,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -5618,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5633,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5642,13 +5645,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5672,7 +5675,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5687,7 +5690,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5702,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5738,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5753,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5798,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>20</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DDC1BF-69FC-47C8-B9B1-FD06A52DE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2BD04C-9602-4669-84BD-87B7AF1E7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A34B516-651B-4C61-841E-4E5F1C752F28}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD65E691-6F2D-48C0-BE5F-8AC84FFE438B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="227">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -124,13 +124,13 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -139,13 +139,13 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>98,47%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,34%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -157,13 +157,16 @@
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>2,29%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>98,91%</t>
@@ -172,10 +175,13 @@
     <t>97,71%</t>
   </si>
   <si>
+    <t>99,48%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -193,7 +199,7 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,88%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -202,460 +208,478 @@
     <t>0,92%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -1106,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71AED7B-25DF-481E-880F-64CAA66699B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F6E8DF-9F70-4773-83CF-0C29EE63A7E3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1711,10 +1735,10 @@
         <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1723,13 +1747,13 @@
         <v>7755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1783,13 @@
         <v>701819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -1774,10 +1798,10 @@
         <v>1383682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>22</v>
@@ -1836,7 +1860,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1854,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1869,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1884,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -1914,13 +1938,13 @@
         <v>11254</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1929,13 +1953,13 @@
         <v>11254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>20</v>
@@ -1965,13 +1989,13 @@
         <v>603010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>1077</v>
@@ -1980,13 +2004,13 @@
         <v>1217626</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,7 +2066,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2060,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2075,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2090,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2120,13 +2144,13 @@
         <v>17583</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -2135,13 +2159,13 @@
         <v>17583</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,7 +2183,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -2171,13 +2195,13 @@
         <v>430217</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>783</v>
@@ -2186,13 +2210,13 @@
         <v>859646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2272,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2266,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2281,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2296,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2335,13 @@
         <v>10293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2326,13 +2350,13 @@
         <v>31259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -2341,13 +2365,13 @@
         <v>41551</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2386,13 @@
         <v>549344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -2377,13 +2401,13 @@
         <v>710533</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1157</v>
@@ -2392,13 +2416,13 @@
         <v>1259878</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2487,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2502,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2541,13 @@
         <v>10293</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -2532,13 +2556,13 @@
         <v>71617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -2547,13 +2571,13 @@
         <v>81910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2592,13 @@
         <v>3416486</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="H30" s="7">
         <v>3229</v>
@@ -2583,13 +2607,13 @@
         <v>3482299</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M30" s="7">
         <v>6428</v>
@@ -2598,13 +2622,13 @@
         <v>6898784</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2684,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138602D1-2F04-4E92-841B-F9607AC7A68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFFC515-4B74-4E8B-A301-17C6781024A4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,7 +2723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2812,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2827,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2842,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2872,13 +2896,13 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2887,13 +2911,13 @@
         <v>996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2923,10 +2947,10 @@
         <v>394759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -2938,10 +2962,10 @@
         <v>814222</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -3033,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3048,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3102,13 @@
         <v>2726</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3093,13 +3117,13 @@
         <v>2726</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3141,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>20</v>
@@ -3129,13 +3153,13 @@
         <v>560818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>1143</v>
@@ -3144,13 +3168,13 @@
         <v>1151314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3275,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3284,13 +3308,13 @@
         <v>3488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3299,13 +3323,13 @@
         <v>3488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,7 +3347,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -3335,7 +3359,7 @@
         <v>657898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>144</v>
@@ -3412,7 +3436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3430,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3460,7 +3484,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +3517,7 @@
         <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>150</v>
@@ -3505,10 +3529,10 @@
         <v>6182</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>151</v>
@@ -3547,16 +3571,16 @@
         <v>154</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>1178</v>
       </c>
       <c r="N18" s="7">
-        <v>1288944</v>
+        <v>1288943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>155</v>
@@ -3604,7 +3628,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -3618,7 +3642,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3651,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3681,13 +3705,13 @@
         <v>1025</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3696,13 +3720,13 @@
         <v>12463</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3711,13 +3735,13 @@
         <v>13487</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,10 +3789,10 @@
         <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3848,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3842,7 +3866,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3887,13 +3911,13 @@
         <v>14556</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -3902,13 +3926,13 @@
         <v>34259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3917,13 +3941,13 @@
         <v>48815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3962,13 @@
         <v>576772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -3953,13 +3977,13 @@
         <v>743672</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
@@ -3968,13 +3992,13 @@
         <v>1320444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4063,7 +4087,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4078,7 +4102,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4117,13 @@
         <v>16562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4108,13 +4132,13 @@
         <v>59131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -4126,10 +4150,10 @@
         <v>38</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4168,13 @@
         <v>3377788</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>3287</v>
@@ -4159,13 +4183,13 @@
         <v>3485411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>6501</v>
@@ -4174,13 +4198,13 @@
         <v>6863199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4260,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3B51E2-D98F-4EB6-A477-98BE4E8A7F3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025DE2C8-F149-438B-BCC8-4808D707F8E0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4275,7 +4299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4385,7 +4409,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4400,7 +4424,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4415,7 +4439,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4439,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4454,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4469,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4514,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4505,7 +4529,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4520,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4615,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4606,7 +4630,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4621,7 +4645,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4645,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4660,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4675,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4711,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4726,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4821,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -4812,7 +4836,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4827,7 +4851,7 @@
         <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
@@ -4851,7 +4875,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4866,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4881,7 +4905,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4917,7 +4941,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4932,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,7 +5012,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5033,7 +5057,7 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -5072,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5087,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5147,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5138,7 +5162,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5218,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5224,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -5239,7 +5263,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5278,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5293,7 +5317,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5344,7 +5368,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5424,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5415,7 +5439,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5430,7 +5454,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5469,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5484,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5520,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5535,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5621,7 +5645,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5636,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5651,7 +5675,7 @@
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5675,7 +5699,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5690,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5705,7 +5729,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,7 +5750,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5741,7 +5765,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5756,7 +5780,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,7 +5836,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80491C8B-5CF5-4A25-9FB3-7953DA5EA010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F924E13-8B42-4B5A-AF1D-5E8BBC799548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54DC6761-7A54-415A-AF80-1DD957F9C951}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{88E3B895-CD44-4BB8-A5AA-A1C0AC99AE37}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="220">
   <si>
     <t>Población con diagnóstico de estreñimiento crónico en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -105,7 +105,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -144,7 +144,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -183,7 +183,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -228,7 +228,7 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -267,219 +267,282 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de estreñimiento crónico en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
     <t>1,07%</t>
   </si>
   <si>
@@ -516,58 +579,94 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -1009,8 +1108,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D0E8B7-22AC-430B-BD11-58EFCA72C770}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42473058-EC31-4C3F-9823-009A23610AEF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1902,10 +2001,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>10293</v>
+        <v>6102</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>77</v>
@@ -1917,10 +2016,10 @@
         <v>79</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>31259</v>
+        <v>10677</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>80</v>
@@ -1932,10 +2031,10 @@
         <v>82</v>
       </c>
       <c r="M19" s="7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>41551</v>
+        <v>16779</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>83</v>
@@ -1953,10 +2052,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>549344</v>
+        <v>303684</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>86</v>
@@ -1968,10 +2067,10 @@
         <v>88</v>
       </c>
       <c r="H20" s="7">
-        <v>663</v>
+        <v>333</v>
       </c>
       <c r="I20" s="7">
-        <v>710533</v>
+        <v>343319</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>89</v>
@@ -1983,10 +2082,10 @@
         <v>91</v>
       </c>
       <c r="M20" s="7">
-        <v>1157</v>
+        <v>609</v>
       </c>
       <c r="N20" s="7">
-        <v>1259878</v>
+        <v>647003</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>92</v>
@@ -2004,10 +2103,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2019,10 +2118,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2034,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2051,55 +2150,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>10293</v>
+        <v>4191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>71617</v>
+        <v>20581</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>81910</v>
+        <v>24772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,49 +2207,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3199</v>
+        <v>218</v>
       </c>
       <c r="D23" s="7">
-        <v>3416486</v>
+        <v>245660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
-        <v>3229</v>
+        <v>330</v>
       </c>
       <c r="I23" s="7">
-        <v>3482299</v>
+        <v>367215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
-        <v>6428</v>
+        <v>548</v>
       </c>
       <c r="N23" s="7">
-        <v>6898784</v>
+        <v>612875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,63 +2258,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10293</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="7">
+        <v>66</v>
+      </c>
+      <c r="I25" s="7">
+        <v>71617</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="7">
+        <v>76</v>
+      </c>
+      <c r="N25" s="7">
+        <v>81910</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3199</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3416486</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3229</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3482299</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6428</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6898784</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>111</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2228,8 +2483,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E126B51-51AD-4885-B236-60FBABDD847F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494CD14F-CC50-4722-8976-52ED068D76FB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2245,7 +2500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2367,13 +2622,13 @@
         <v>996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2382,13 +2637,13 @@
         <v>996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,10 +2673,10 @@
         <v>394759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2433,10 +2688,10 @@
         <v>814222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2513,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2522,13 +2777,13 @@
         <v>2726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2537,13 +2792,13 @@
         <v>2726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,7 +2816,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2573,13 +2828,13 @@
         <v>560818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>1143</v>
@@ -2588,13 +2843,13 @@
         <v>1151314</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2677,13 +2932,13 @@
         <v>3488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2692,13 +2947,13 @@
         <v>3488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2971,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2728,13 +2983,13 @@
         <v>657898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -2743,10 +2998,10 @@
         <v>1326995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>34</v>
@@ -2817,13 +3072,13 @@
         <v>982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2832,13 +3087,13 @@
         <v>5200</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2847,13 +3102,13 @@
         <v>6182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,10 +3123,10 @@
         <v>645066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2883,13 +3138,13 @@
         <v>643877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1178</v>
@@ -2898,10 +3153,10 @@
         <v>1288943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>32</v>
@@ -2978,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2987,13 +3242,13 @@
         <v>12463</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3002,13 +3257,13 @@
         <v>13487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3281,7 @@
         <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3038,13 +3293,13 @@
         <v>484386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>846</v>
@@ -3053,13 +3308,13 @@
         <v>961280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,49 +3376,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>14556</v>
+        <v>8688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>34259</v>
+        <v>12769</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>48815</v>
+        <v>21457</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,49 +3427,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>612</v>
+        <v>317</v>
       </c>
       <c r="D20" s="7">
-        <v>576772</v>
+        <v>325642</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
-        <v>626</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>743672</v>
+        <v>364993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
-        <v>1238</v>
+        <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>1320444</v>
+        <v>690635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3238,10 +3493,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3253,10 +3508,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3270,55 +3525,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5868</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="7">
         <v>17</v>
       </c>
-      <c r="D22" s="7">
-        <v>16562</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="7">
-        <v>51</v>
-      </c>
       <c r="I22" s="7">
-        <v>59131</v>
+        <v>21490</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>75693</v>
+        <v>27358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,49 +3582,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3214</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3377788</v>
+        <v>251130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
-        <v>3287</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>3485411</v>
+        <v>378679</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
-        <v>6501</v>
+        <v>579</v>
       </c>
       <c r="N23" s="7">
-        <v>6863199</v>
+        <v>629809</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,63 +3633,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7">
+        <v>16562</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="7">
+        <v>51</v>
+      </c>
+      <c r="I25" s="7">
+        <v>59131</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="7">
+        <v>68</v>
+      </c>
+      <c r="N25" s="7">
+        <v>75693</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3377788</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3287</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3485411</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6501</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6863199</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>111</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
